--- a/Utils/student.xlsx
+++ b/Utils/student.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse\SeliniumGuvi\Utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1C2B1B-0893-44FE-91C3-17D27402845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2A76C9-D5FE-41CC-9B52-685D22B42DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="moh" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Yuva</t>
   </si>
@@ -378,13 +379,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -395,7 +394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -406,7 +405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -417,7 +416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -428,7 +427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -439,4 +438,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555E481-BED2-4530-80DD-A931050E2227}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>